--- a/Docs/Quantize.xlsx
+++ b/Docs/Quantize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaito\Documents\GitHub\multiribbon\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84653313-A37B-4A0C-A42D-15FC6068C461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F64CE2-CA08-435D-B512-F1C9D132B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32145" yWindow="2025" windowWidth="21570" windowHeight="16695" xr2:uid="{D88F8E54-8F8F-414B-8162-6190EB157B33}"/>
+    <workbookView xWindow="5595" yWindow="1680" windowWidth="21570" windowHeight="16695" xr2:uid="{D88F8E54-8F8F-414B-8162-6190EB157B33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1447,7 +1447,7 @@
   <dimension ref="D2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
